--- a/biology/Zoologie/Andrena_humilis/Andrena_humilis.xlsx
+++ b/biology/Zoologie/Andrena_humilis/Andrena_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrena humilis est une espèce d'insectes hyménoptères de la famille des Andrenidae. Elle est présente en France sur l’ensemble du territoire métropolitain, en Angleterre et au Pays de Galles, en Belgique, en Europe de l’Est et en Eurasie jusqu’en Chine.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oligolectique, cette andrène collecte le pollen sur des astaracées[2]. Cette espèce est active au printemps[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oligolectique, cette andrène collecte le pollen sur des astaracées. Cette espèce est active au printemps.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les abeilles coucous Nomada integra[3], Nomada facilis et Nomada femoralis sont des cleptoparasites de cette espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les abeilles coucous Nomada integra, Nomada facilis et Nomada femoralis sont des cleptoparasites de cette espèce.
 </t>
         </is>
       </c>
